--- a/data/echoMRI/Kotz08042025.xlsx
+++ b/data/echoMRI/Kotz08042025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5202FF7-DEF3-1A45-A82A-06277F2BFE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C826B-7E1D-2748-BE03-F32283E5B4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="11360" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -58,151 +58,151 @@
     <t>9400</t>
   </si>
   <si>
-    <t>09:53:53; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9401</t>
   </si>
   <si>
-    <t>09:55:24; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9402</t>
   </si>
   <si>
-    <t>09:57:15; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9403</t>
   </si>
   <si>
-    <t>09:58:56; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9413</t>
   </si>
   <si>
-    <t>10:00:24; 4 Aug 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9404</t>
   </si>
   <si>
-    <t>10:01:42; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9409</t>
   </si>
   <si>
-    <t>10:03:14; 4 Aug 2025; 27; ems</t>
-  </si>
-  <si>
     <t>9514</t>
   </si>
   <si>
-    <t>10:05:05; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9412</t>
   </si>
   <si>
-    <t>10:07:13; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9416</t>
   </si>
   <si>
-    <t>10:08:42; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9410</t>
   </si>
   <si>
-    <t>10:10:17; 4 Aug 2025; 41; ems</t>
-  </si>
-  <si>
     <t>9417</t>
   </si>
   <si>
-    <t>10:11:50; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9415</t>
   </si>
   <si>
-    <t>10:13:12; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>9408</t>
   </si>
   <si>
-    <t>10:14:28; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9407</t>
   </si>
   <si>
-    <t>10:15:43; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9406</t>
   </si>
   <si>
-    <t>10:17:00; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9405</t>
   </si>
   <si>
-    <t>10:18:15; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9418</t>
   </si>
   <si>
-    <t>10:19:38; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>9411</t>
   </si>
   <si>
-    <t>10:20:53; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>7879</t>
   </si>
   <si>
-    <t>10:22:12; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>7869</t>
   </si>
   <si>
-    <t>10:23:28; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>7870</t>
   </si>
   <si>
-    <t>10:24:42; 4 Aug 2025; 31; ems</t>
-  </si>
-  <si>
     <t>7877</t>
   </si>
   <si>
-    <t>10:25:52; 4 Aug 2025; 27; ems</t>
-  </si>
-  <si>
     <t>7866</t>
   </si>
   <si>
-    <t>10:27:01; 4 Aug 2025; 32; ems</t>
-  </si>
-  <si>
     <t>7871</t>
   </si>
   <si>
-    <t>10:28:16; 4 Aug 2025; 31; ems</t>
+    <t>09:53:53 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:55:24 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>09:57:15 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>09:58:56 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:00:24 Aug 4, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>10:01:42 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:03:14 Aug 4, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>10:05:05 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:07:13 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:08:42 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:10:17 Aug 4, 2025; 41; ems</t>
+  </si>
+  <si>
+    <t>10:11:50 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:13:12 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:14:28 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:15:43 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:17:00 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:18:15 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:19:38 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:20:53 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:22:12 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:23:28 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:24:42 Aug 4, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:25:52 Aug 4, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>10:27:01 Aug 4, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:28:16 Aug 4, 2025; 31; ems</t>
   </si>
 </sst>
 </file>
@@ -543,9 +543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -599,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -613,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1.82</v>
@@ -628,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -642,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1.48</v>
@@ -657,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -671,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2.1</v>
@@ -686,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -700,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1.55</v>
@@ -715,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -729,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>1.57</v>
@@ -744,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -758,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2.0099999999999998</v>
@@ -773,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -787,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1.97</v>
@@ -802,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -816,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2.12</v>
@@ -831,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -845,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2.4500000000000002</v>
@@ -860,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -874,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1.77</v>
@@ -889,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -903,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2.19</v>
@@ -918,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -932,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2.25</v>
@@ -947,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -961,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>1.69</v>
@@ -976,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -990,7 +995,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1.67</v>
@@ -1005,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1019,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>1.46</v>
@@ -1034,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1048,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>1.7</v>
@@ -1063,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1077,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1.9</v>
@@ -1092,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1106,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>1.67</v>
@@ -1121,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1135,7 +1140,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>4.3600000000000003</v>
@@ -1150,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1164,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>5.36</v>
@@ -1179,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1193,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>3.29</v>
@@ -1208,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1222,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>1.33</v>
@@ -1237,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1251,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>1.64</v>
@@ -1266,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1280,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>10.42</v>

--- a/data/echoMRI/Kotz08042025.xlsx
+++ b/data/echoMRI/Kotz08042025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10125"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C826B-7E1D-2748-BE03-F32283E5B4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE27B9-D802-D74A-9F76-A65DA582ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>RecNumber</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>9409</t>
-  </si>
-  <si>
-    <t>9514</t>
   </si>
   <si>
     <t>9412</t>
@@ -544,12 +541,12 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B9" sqref="B9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -604,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -633,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -662,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -691,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -720,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -778,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -791,8 +788,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9">
+        <v>9414</v>
       </c>
       <c r="C9">
         <v>1.97</v>
@@ -807,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>2.12</v>
@@ -836,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2.4500000000000002</v>
@@ -865,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -879,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1.77</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -908,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2.19</v>
@@ -923,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -937,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2.25</v>
@@ -952,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -966,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1.69</v>
@@ -981,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -995,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1.67</v>
@@ -1010,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1024,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1.46</v>
@@ -1039,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1053,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1.7</v>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1082,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>1.9</v>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>1.67</v>
@@ -1126,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1140,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>4.3600000000000003</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>5.36</v>
@@ -1184,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1198,7 +1195,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>3.29</v>
@@ -1213,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1227,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>1.33</v>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1256,7 +1253,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1.64</v>
@@ -1271,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1285,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>10.42</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26">
         <v>1</v>
